--- a/array_string/record.xlsx
+++ b/array_string/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\array_string\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1F7102-95AB-4986-A06A-447AF0F472B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4EE2D0-28F8-4EE7-83ED-E419E2BD1063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>题号</t>
   </si>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>做麻了，copy的代码比较妙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题16.15珠玑妙算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以为自己做的很麻烦，实际上看了题解发现都是这么做的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -465,6 +473,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/array_string/record.xlsx
+++ b/array_string/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\array_string\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4EE2D0-28F8-4EE7-83ED-E419E2BD1063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A473C0-74A6-46BB-9164-6CCF6AEE6831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>题号</t>
   </si>
@@ -80,6 +80,26 @@
   </si>
   <si>
     <t>以为自己做的很麻烦，实际上看了题解发现都是这么做的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1275找出井字棋的获胜者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过位运算非常优雅地解决了，记录一下，有空更新自己的做法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>506相对名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种方法，一种通过哈希表，另一种实现过程中用到了lambda表达式排序，故记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -487,6 +507,34 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/array_string/record.xlsx
+++ b/array_string/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\array_string\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A473C0-74A6-46BB-9164-6CCF6AEE6831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BFECE9-795F-47C3-8441-9668963ECC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5856" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>题号</t>
   </si>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>两种方法，一种通过哈希表，另一种实现过程中用到了lambda表达式排序，故记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14最长公共前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种方法，第一种学到字符串比较大小是通过字典序，第二种学到了zip的正逆操作以及对应的广义转置的思想，还有map的用法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,6 +543,20 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/array_string/record.xlsx
+++ b/array_string/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\array_string\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BFECE9-795F-47C3-8441-9668963ECC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752669E-E8E4-4469-B7AF-978DC4F01981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5712" yWindow="5772" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>题号</t>
   </si>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>两种方法，第一种学到字符串比较大小是通过字典序，第二种学到了zip的正逆操作以及对应的广义转置的思想，还有map的用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168excel表列名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -557,6 +561,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
